--- a/صيدليات دكتور مصطفي طلعت_2026-01-14_21-31.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-14_21-31.xlsx
@@ -68,6 +68,18 @@
     <t>1:13</t>
   </si>
   <si>
+    <t>ATROVENT 500MCG/2ML 20 UNIT DOSE VIALS</t>
+  </si>
+  <si>
+    <t>1:16</t>
+  </si>
+  <si>
+    <t>AWADIST 1000 MG 20 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
     <t>BETADERM 0.1% CREAM 15 GM</t>
   </si>
   <si>
@@ -107,9 +119,6 @@
     <t>CETAL 500MG 20 TAB</t>
   </si>
   <si>
-    <t>0:2</t>
-  </si>
-  <si>
     <t>CIDOPHAGE 500MG 10 TAB</t>
   </si>
   <si>
@@ -164,6 +173,9 @@
     <t>EMPACOZA 10 MG 30 F.C. TABS</t>
   </si>
   <si>
+    <t>EPICOPRED 5 MG 30 ORODISPERSIBLE TABS.</t>
+  </si>
+  <si>
     <t>ERASTAPEX PLUS 20MG/12.5MG 30 TAB</t>
   </si>
   <si>
@@ -272,6 +284,9 @@
     <t>MOODAPEX100MG TAB</t>
   </si>
   <si>
+    <t xml:space="preserve">MOVXIR 50/500  TAB </t>
+  </si>
+  <si>
     <t>MUCOBRAVE 600 MG 10 SACHETS</t>
   </si>
   <si>
@@ -341,6 +356,9 @@
     <t>RUBALGINE 15% TOPICAL CREAM 20 GM</t>
   </si>
   <si>
+    <t>SAFE TOP SYRUP</t>
+  </si>
+  <si>
     <t>SPINOBAC 5MG/5ML SYRUP 120ML</t>
   </si>
   <si>
@@ -398,7 +416,7 @@
     <t>WATER FOR INJECTION AMP. 5 ML</t>
   </si>
   <si>
-    <t>7743:0</t>
+    <t>7741:0</t>
   </si>
   <si>
     <t>XITHRONE 500MG 5 F.C.TAB.</t>
@@ -407,9 +425,6 @@
     <t>XORAXON 1GM I.V. VIAL</t>
   </si>
   <si>
-    <t>16:0</t>
-  </si>
-  <si>
     <t>ZINCTRON 30 CAPS</t>
   </si>
   <si>
@@ -428,18 +443,21 @@
     <t>سرنجات 10 سم</t>
   </si>
   <si>
+    <t>-4:0</t>
+  </si>
+  <si>
+    <t>سرنجات 3 سم</t>
+  </si>
+  <si>
     <t>-2:0</t>
   </si>
   <si>
-    <t>سرنجات 3 سم</t>
-  </si>
-  <si>
-    <t>-3:0</t>
-  </si>
-  <si>
     <t>سرنجات 5 سم</t>
   </si>
   <si>
+    <t>-1:0</t>
+  </si>
+  <si>
     <t>صوفي طويل جدا</t>
   </si>
   <si>
@@ -447,6 +465,9 @@
   </si>
   <si>
     <t>كريم فاتيكا الحبه السوداء 210 جم</t>
+  </si>
+  <si>
+    <t>ماسك جلسات اطفال</t>
   </si>
   <si>
     <t>معجون اسنان بارودونتكس 50مل</t>
@@ -1207,11 +1228,11 @@
       <c r="J10" s="8"/>
       <c r="K10" s="8"/>
       <c r="L10" s="9">
-        <v>18</v>
+        <v>14.300000000000001</v>
       </c>
       <c r="M10" s="9"/>
       <c t="s" r="N10" s="7">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" ht="24.75" customHeight="1">
@@ -1227,17 +1248,17 @@
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
       <c t="s" r="H11" s="8">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="I11" s="8"/>
       <c r="J11" s="8"/>
       <c r="K11" s="8"/>
       <c r="L11" s="9">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="M11" s="9"/>
       <c t="s" r="N11" s="7">
-        <v>14</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1253,17 +1274,17 @@
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
       <c t="s" r="H12" s="8">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="I12" s="8"/>
       <c r="J12" s="8"/>
       <c r="K12" s="8"/>
       <c r="L12" s="9">
-        <v>64</v>
+        <v>18</v>
       </c>
       <c r="M12" s="9"/>
       <c t="s" r="N12" s="7">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" ht="25.5" customHeight="1">
@@ -1271,7 +1292,7 @@
         <v>10</v>
       </c>
       <c t="s" r="B13" s="7">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
@@ -1279,17 +1300,17 @@
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
       <c t="s" r="H13" s="8">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="I13" s="8"/>
       <c r="J13" s="8"/>
       <c r="K13" s="8"/>
       <c r="L13" s="9">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="M13" s="9"/>
       <c t="s" r="N13" s="7">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" ht="24.75" customHeight="1">
@@ -1297,7 +1318,7 @@
         <v>11</v>
       </c>
       <c t="s" r="B14" s="7">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
@@ -1305,13 +1326,13 @@
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
       <c t="s" r="H14" s="8">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="I14" s="8"/>
       <c r="J14" s="8"/>
       <c r="K14" s="8"/>
       <c r="L14" s="9">
-        <v>19.899999999999999</v>
+        <v>64</v>
       </c>
       <c r="M14" s="9"/>
       <c t="s" r="N14" s="7">
@@ -1323,7 +1344,7 @@
         <v>12</v>
       </c>
       <c t="s" r="B15" s="7">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
@@ -1331,13 +1352,13 @@
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
       <c t="s" r="H15" s="8">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="I15" s="8"/>
       <c r="J15" s="8"/>
       <c r="K15" s="8"/>
       <c r="L15" s="9">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="M15" s="9"/>
       <c t="s" r="N15" s="7">
@@ -1349,7 +1370,7 @@
         <v>13</v>
       </c>
       <c t="s" r="B16" s="7">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
@@ -1357,17 +1378,17 @@
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
       <c t="s" r="H16" s="8">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="I16" s="8"/>
       <c r="J16" s="8"/>
       <c r="K16" s="8"/>
       <c r="L16" s="9">
-        <v>45</v>
+        <v>19.899999999999999</v>
       </c>
       <c r="M16" s="9"/>
       <c t="s" r="N16" s="7">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1375,7 +1396,7 @@
         <v>14</v>
       </c>
       <c t="s" r="B17" s="7">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
@@ -1383,17 +1404,17 @@
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
       <c t="s" r="H17" s="8">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="I17" s="8"/>
       <c r="J17" s="8"/>
       <c r="K17" s="8"/>
       <c r="L17" s="9">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="M17" s="9"/>
       <c t="s" r="N17" s="7">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18" ht="25.5" customHeight="1">
@@ -1401,7 +1422,7 @@
         <v>15</v>
       </c>
       <c t="s" r="B18" s="7">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
@@ -1409,17 +1430,17 @@
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
       <c t="s" r="H18" s="8">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="I18" s="8"/>
       <c r="J18" s="8"/>
       <c r="K18" s="8"/>
       <c r="L18" s="9">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="M18" s="9"/>
       <c t="s" r="N18" s="7">
-        <v>32</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19" ht="24.75" customHeight="1">
@@ -1435,13 +1456,13 @@
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
       <c t="s" r="H19" s="8">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="I19" s="8"/>
       <c r="J19" s="8"/>
       <c r="K19" s="8"/>
       <c r="L19" s="9">
-        <v>22</v>
+        <v>62</v>
       </c>
       <c r="M19" s="9"/>
       <c t="s" r="N19" s="7">
@@ -1453,7 +1474,7 @@
         <v>17</v>
       </c>
       <c t="s" r="B20" s="7">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
@@ -1461,17 +1482,17 @@
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
       <c t="s" r="H20" s="8">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="I20" s="8"/>
       <c r="J20" s="8"/>
       <c r="K20" s="8"/>
       <c r="L20" s="9">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="M20" s="9"/>
       <c t="s" r="N20" s="7">
-        <v>32</v>
+        <v>22</v>
       </c>
     </row>
     <row r="21" ht="24.75" customHeight="1">
@@ -1487,17 +1508,17 @@
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
       <c t="s" r="H21" s="8">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I21" s="8"/>
       <c r="J21" s="8"/>
       <c r="K21" s="8"/>
       <c r="L21" s="9">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="M21" s="9"/>
       <c t="s" r="N21" s="7">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1513,17 +1534,17 @@
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
       <c t="s" r="H22" s="8">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="I22" s="8"/>
       <c r="J22" s="8"/>
       <c r="K22" s="8"/>
       <c r="L22" s="9">
-        <v>120</v>
+        <v>20</v>
       </c>
       <c r="M22" s="9"/>
       <c t="s" r="N22" s="7">
-        <v>9</v>
+        <v>22</v>
       </c>
     </row>
     <row r="23" ht="25.5" customHeight="1">
@@ -1531,7 +1552,7 @@
         <v>20</v>
       </c>
       <c t="s" r="B23" s="7">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
@@ -1539,17 +1560,17 @@
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
       <c t="s" r="H23" s="8">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="I23" s="8"/>
       <c r="J23" s="8"/>
       <c r="K23" s="8"/>
       <c r="L23" s="9">
-        <v>-200</v>
+        <v>36</v>
       </c>
       <c r="M23" s="9"/>
       <c t="s" r="N23" s="7">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="24" ht="24.75" customHeight="1">
@@ -1565,17 +1586,17 @@
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
       <c t="s" r="H24" s="8">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="I24" s="8"/>
       <c r="J24" s="8"/>
       <c r="K24" s="8"/>
       <c r="L24" s="9">
-        <v>47.5</v>
+        <v>120</v>
       </c>
       <c r="M24" s="9"/>
       <c t="s" r="N24" s="7">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25" ht="25.5" customHeight="1">
@@ -1597,11 +1618,11 @@
       <c r="J25" s="8"/>
       <c r="K25" s="8"/>
       <c r="L25" s="9">
-        <v>42</v>
+        <v>-200</v>
       </c>
       <c r="M25" s="9"/>
       <c t="s" r="N25" s="7">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26" ht="24.75" customHeight="1">
@@ -1617,13 +1638,13 @@
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
       <c t="s" r="H26" s="8">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="I26" s="8"/>
       <c r="J26" s="8"/>
       <c r="K26" s="8"/>
       <c r="L26" s="9">
-        <v>12</v>
+        <v>47.5</v>
       </c>
       <c r="M26" s="9"/>
       <c t="s" r="N26" s="7">
@@ -1635,7 +1656,7 @@
         <v>24</v>
       </c>
       <c t="s" r="B27" s="7">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
@@ -1643,17 +1664,17 @@
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
       <c t="s" r="H27" s="8">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I27" s="8"/>
       <c r="J27" s="8"/>
       <c r="K27" s="8"/>
       <c r="L27" s="9">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="M27" s="9"/>
       <c t="s" r="N27" s="7">
-        <v>47</v>
+        <v>11</v>
       </c>
     </row>
     <row r="28" ht="25.5" customHeight="1">
@@ -1661,7 +1682,7 @@
         <v>25</v>
       </c>
       <c t="s" r="B28" s="7">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
@@ -1669,17 +1690,17 @@
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
       <c t="s" r="H28" s="8">
-        <v>9</v>
+        <v>47</v>
       </c>
       <c r="I28" s="8"/>
       <c r="J28" s="8"/>
       <c r="K28" s="8"/>
       <c r="L28" s="9">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="M28" s="9"/>
       <c t="s" r="N28" s="7">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="29" ht="24.75" customHeight="1">
@@ -1687,7 +1708,7 @@
         <v>26</v>
       </c>
       <c t="s" r="B29" s="7">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
@@ -1695,17 +1716,17 @@
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
       <c t="s" r="H29" s="8">
-        <v>14</v>
+        <v>49</v>
       </c>
       <c r="I29" s="8"/>
       <c r="J29" s="8"/>
       <c r="K29" s="8"/>
       <c r="L29" s="9">
-        <v>220</v>
+        <v>32</v>
       </c>
       <c r="M29" s="9"/>
       <c t="s" r="N29" s="7">
-        <v>9</v>
+        <v>50</v>
       </c>
     </row>
     <row r="30" ht="25.5" customHeight="1">
@@ -1713,7 +1734,7 @@
         <v>27</v>
       </c>
       <c t="s" r="B30" s="7">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
@@ -1727,11 +1748,11 @@
       <c r="J30" s="8"/>
       <c r="K30" s="8"/>
       <c r="L30" s="9">
-        <v>80</v>
+        <v>52</v>
       </c>
       <c r="M30" s="9"/>
       <c t="s" r="N30" s="7">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="31" ht="24.75" customHeight="1">
@@ -1739,7 +1760,7 @@
         <v>28</v>
       </c>
       <c t="s" r="B31" s="7">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
@@ -1747,17 +1768,17 @@
       <c r="F31" s="7"/>
       <c r="G31" s="7"/>
       <c t="s" r="H31" s="8">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="I31" s="8"/>
       <c r="J31" s="8"/>
       <c r="K31" s="8"/>
       <c r="L31" s="9">
-        <v>52</v>
+        <v>220</v>
       </c>
       <c r="M31" s="9"/>
       <c t="s" r="N31" s="7">
-        <v>47</v>
+        <v>9</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1765,7 +1786,7 @@
         <v>29</v>
       </c>
       <c t="s" r="B32" s="7">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
@@ -1773,17 +1794,17 @@
       <c r="F32" s="7"/>
       <c r="G32" s="7"/>
       <c t="s" r="H32" s="8">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="I32" s="8"/>
       <c r="J32" s="8"/>
       <c r="K32" s="8"/>
       <c r="L32" s="9">
-        <v>150</v>
+        <v>80</v>
       </c>
       <c r="M32" s="9"/>
       <c t="s" r="N32" s="7">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="33" ht="25.5" customHeight="1">
@@ -1791,7 +1812,7 @@
         <v>30</v>
       </c>
       <c t="s" r="B33" s="7">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C33" s="7"/>
       <c r="D33" s="7"/>
@@ -1799,17 +1820,17 @@
       <c r="F33" s="7"/>
       <c r="G33" s="7"/>
       <c t="s" r="H33" s="8">
-        <v>54</v>
+        <v>9</v>
       </c>
       <c r="I33" s="8"/>
       <c r="J33" s="8"/>
       <c r="K33" s="8"/>
       <c r="L33" s="9">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="M33" s="9"/>
       <c t="s" r="N33" s="7">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="34" ht="24.75" customHeight="1">
@@ -1825,17 +1846,17 @@
       <c r="F34" s="7"/>
       <c r="G34" s="7"/>
       <c t="s" r="H34" s="8">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I34" s="8"/>
       <c r="J34" s="8"/>
       <c r="K34" s="8"/>
       <c r="L34" s="9">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="M34" s="9"/>
       <c t="s" r="N34" s="7">
-        <v>32</v>
+        <v>50</v>
       </c>
     </row>
     <row r="35" ht="25.5" customHeight="1">
@@ -1851,13 +1872,13 @@
       <c r="F35" s="7"/>
       <c r="G35" s="7"/>
       <c t="s" r="H35" s="8">
-        <v>54</v>
+        <v>14</v>
       </c>
       <c r="I35" s="8"/>
       <c r="J35" s="8"/>
       <c r="K35" s="8"/>
       <c r="L35" s="9">
-        <v>30.079999999999998</v>
+        <v>150</v>
       </c>
       <c r="M35" s="9"/>
       <c t="s" r="N35" s="7">
@@ -1877,13 +1898,13 @@
       <c r="F36" s="7"/>
       <c r="G36" s="7"/>
       <c t="s" r="H36" s="8">
-        <v>14</v>
+        <v>58</v>
       </c>
       <c r="I36" s="8"/>
       <c r="J36" s="8"/>
       <c r="K36" s="8"/>
       <c r="L36" s="9">
-        <v>59.5</v>
+        <v>26</v>
       </c>
       <c r="M36" s="9"/>
       <c t="s" r="N36" s="7">
@@ -1895,7 +1916,7 @@
         <v>34</v>
       </c>
       <c t="s" r="B37" s="7">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C37" s="7"/>
       <c r="D37" s="7"/>
@@ -1903,17 +1924,17 @@
       <c r="F37" s="7"/>
       <c r="G37" s="7"/>
       <c t="s" r="H37" s="8">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="I37" s="8"/>
       <c r="J37" s="8"/>
       <c r="K37" s="8"/>
       <c r="L37" s="9">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="M37" s="9"/>
       <c t="s" r="N37" s="7">
-        <v>9</v>
+        <v>22</v>
       </c>
     </row>
     <row r="38" ht="25.5" customHeight="1">
@@ -1921,7 +1942,7 @@
         <v>35</v>
       </c>
       <c t="s" r="B38" s="7">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C38" s="7"/>
       <c r="D38" s="7"/>
@@ -1929,17 +1950,17 @@
       <c r="F38" s="7"/>
       <c r="G38" s="7"/>
       <c t="s" r="H38" s="8">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="I38" s="8"/>
       <c r="J38" s="8"/>
       <c r="K38" s="8"/>
       <c r="L38" s="9">
-        <v>60</v>
+        <v>30.079999999999998</v>
       </c>
       <c r="M38" s="9"/>
       <c t="s" r="N38" s="7">
-        <v>32</v>
+        <v>9</v>
       </c>
     </row>
     <row r="39" ht="24.75" customHeight="1">
@@ -1947,7 +1968,7 @@
         <v>36</v>
       </c>
       <c t="s" r="B39" s="7">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C39" s="7"/>
       <c r="D39" s="7"/>
@@ -1961,7 +1982,7 @@
       <c r="J39" s="8"/>
       <c r="K39" s="8"/>
       <c r="L39" s="9">
-        <v>41</v>
+        <v>59.5</v>
       </c>
       <c r="M39" s="9"/>
       <c t="s" r="N39" s="7">
@@ -1973,7 +1994,7 @@
         <v>37</v>
       </c>
       <c t="s" r="B40" s="7">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C40" s="7"/>
       <c r="D40" s="7"/>
@@ -1981,17 +2002,17 @@
       <c r="F40" s="7"/>
       <c r="G40" s="7"/>
       <c t="s" r="H40" s="8">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="I40" s="8"/>
       <c r="J40" s="8"/>
       <c r="K40" s="8"/>
       <c r="L40" s="9">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="M40" s="9"/>
       <c t="s" r="N40" s="7">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="41" ht="24.75" customHeight="1">
@@ -1999,7 +2020,7 @@
         <v>38</v>
       </c>
       <c t="s" r="B41" s="7">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C41" s="7"/>
       <c r="D41" s="7"/>
@@ -2007,17 +2028,17 @@
       <c r="F41" s="7"/>
       <c r="G41" s="7"/>
       <c t="s" r="H41" s="8">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="I41" s="8"/>
       <c r="J41" s="8"/>
       <c r="K41" s="8"/>
       <c r="L41" s="9">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="M41" s="9"/>
       <c t="s" r="N41" s="7">
-        <v>9</v>
+        <v>22</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2025,7 +2046,7 @@
         <v>39</v>
       </c>
       <c t="s" r="B42" s="7">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C42" s="7"/>
       <c r="D42" s="7"/>
@@ -2033,17 +2054,17 @@
       <c r="F42" s="7"/>
       <c r="G42" s="7"/>
       <c t="s" r="H42" s="8">
-        <v>64</v>
+        <v>14</v>
       </c>
       <c r="I42" s="8"/>
       <c r="J42" s="8"/>
       <c r="K42" s="8"/>
       <c r="L42" s="9">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="M42" s="9"/>
       <c t="s" r="N42" s="7">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="43" ht="25.5" customHeight="1">
@@ -2059,17 +2080,17 @@
       <c r="F43" s="7"/>
       <c r="G43" s="7"/>
       <c t="s" r="H43" s="8">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="I43" s="8"/>
       <c r="J43" s="8"/>
       <c r="K43" s="8"/>
       <c r="L43" s="9">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="M43" s="9"/>
       <c t="s" r="N43" s="7">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="44" ht="24.75" customHeight="1">
@@ -2091,11 +2112,11 @@
       <c r="J44" s="8"/>
       <c r="K44" s="8"/>
       <c r="L44" s="9">
-        <v>114</v>
+        <v>56</v>
       </c>
       <c r="M44" s="9"/>
       <c t="s" r="N44" s="7">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="45" ht="25.5" customHeight="1">
@@ -2111,13 +2132,13 @@
       <c r="F45" s="7"/>
       <c r="G45" s="7"/>
       <c t="s" r="H45" s="8">
-        <v>22</v>
+        <v>68</v>
       </c>
       <c r="I45" s="8"/>
       <c r="J45" s="8"/>
       <c r="K45" s="8"/>
       <c r="L45" s="9">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="M45" s="9"/>
       <c t="s" r="N45" s="7">
@@ -2129,7 +2150,7 @@
         <v>43</v>
       </c>
       <c t="s" r="B46" s="7">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C46" s="7"/>
       <c r="D46" s="7"/>
@@ -2137,17 +2158,17 @@
       <c r="F46" s="7"/>
       <c r="G46" s="7"/>
       <c t="s" r="H46" s="8">
-        <v>69</v>
+        <v>9</v>
       </c>
       <c r="I46" s="8"/>
       <c r="J46" s="8"/>
       <c r="K46" s="8"/>
       <c r="L46" s="9">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="M46" s="9"/>
       <c t="s" r="N46" s="7">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2163,17 +2184,17 @@
       <c r="F47" s="7"/>
       <c r="G47" s="7"/>
       <c t="s" r="H47" s="8">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="I47" s="8"/>
       <c r="J47" s="8"/>
       <c r="K47" s="8"/>
       <c r="L47" s="9">
-        <v>12</v>
+        <v>114</v>
       </c>
       <c r="M47" s="9"/>
       <c t="s" r="N47" s="7">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="48" ht="25.5" customHeight="1">
@@ -2189,17 +2210,17 @@
       <c r="F48" s="7"/>
       <c r="G48" s="7"/>
       <c t="s" r="H48" s="8">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="I48" s="8"/>
       <c r="J48" s="8"/>
       <c r="K48" s="8"/>
       <c r="L48" s="9">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="M48" s="9"/>
       <c t="s" r="N48" s="7">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="49" ht="24.75" customHeight="1">
@@ -2221,11 +2242,11 @@
       <c r="J49" s="8"/>
       <c r="K49" s="8"/>
       <c r="L49" s="9">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="M49" s="9"/>
       <c t="s" r="N49" s="7">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="50" ht="25.5" customHeight="1">
@@ -2241,17 +2262,17 @@
       <c r="F50" s="7"/>
       <c r="G50" s="7"/>
       <c t="s" r="H50" s="8">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="I50" s="8"/>
       <c r="J50" s="8"/>
       <c r="K50" s="8"/>
       <c r="L50" s="9">
-        <v>57</v>
+        <v>12</v>
       </c>
       <c r="M50" s="9"/>
       <c t="s" r="N50" s="7">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="51" ht="24.75" customHeight="1">
@@ -2273,7 +2294,7 @@
       <c r="J51" s="8"/>
       <c r="K51" s="8"/>
       <c r="L51" s="9">
-        <v>109</v>
+        <v>39</v>
       </c>
       <c r="M51" s="9"/>
       <c t="s" r="N51" s="7">
@@ -2293,17 +2314,17 @@
       <c r="F52" s="7"/>
       <c r="G52" s="7"/>
       <c t="s" r="H52" s="8">
-        <v>35</v>
+        <v>77</v>
       </c>
       <c r="I52" s="8"/>
       <c r="J52" s="8"/>
       <c r="K52" s="8"/>
       <c r="L52" s="9">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="M52" s="9"/>
       <c t="s" r="N52" s="7">
-        <v>32</v>
+        <v>11</v>
       </c>
     </row>
     <row r="53" ht="25.5" customHeight="1">
@@ -2311,7 +2332,7 @@
         <v>50</v>
       </c>
       <c t="s" r="B53" s="7">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C53" s="7"/>
       <c r="D53" s="7"/>
@@ -2319,13 +2340,13 @@
       <c r="F53" s="7"/>
       <c r="G53" s="7"/>
       <c t="s" r="H53" s="8">
-        <v>14</v>
+        <v>58</v>
       </c>
       <c r="I53" s="8"/>
       <c r="J53" s="8"/>
       <c r="K53" s="8"/>
       <c r="L53" s="9">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="M53" s="9"/>
       <c t="s" r="N53" s="7">
@@ -2337,7 +2358,7 @@
         <v>51</v>
       </c>
       <c t="s" r="B54" s="7">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C54" s="7"/>
       <c r="D54" s="7"/>
@@ -2345,17 +2366,17 @@
       <c r="F54" s="7"/>
       <c r="G54" s="7"/>
       <c t="s" r="H54" s="8">
-        <v>79</v>
+        <v>14</v>
       </c>
       <c r="I54" s="8"/>
       <c r="J54" s="8"/>
       <c r="K54" s="8"/>
       <c r="L54" s="9">
-        <v>28</v>
+        <v>109</v>
       </c>
       <c r="M54" s="9"/>
       <c t="s" r="N54" s="7">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="55" ht="25.5" customHeight="1">
@@ -2371,17 +2392,17 @@
       <c r="F55" s="7"/>
       <c r="G55" s="7"/>
       <c t="s" r="H55" s="8">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="I55" s="8"/>
       <c r="J55" s="8"/>
       <c r="K55" s="8"/>
       <c r="L55" s="9">
-        <v>135</v>
+        <v>18</v>
       </c>
       <c r="M55" s="9"/>
       <c t="s" r="N55" s="7">
-        <v>9</v>
+        <v>22</v>
       </c>
     </row>
     <row r="56" ht="24.75" customHeight="1">
@@ -2397,13 +2418,13 @@
       <c r="F56" s="7"/>
       <c r="G56" s="7"/>
       <c t="s" r="H56" s="8">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="I56" s="8"/>
       <c r="J56" s="8"/>
       <c r="K56" s="8"/>
       <c r="L56" s="9">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="M56" s="9"/>
       <c t="s" r="N56" s="7">
@@ -2429,7 +2450,7 @@
       <c r="J57" s="8"/>
       <c r="K57" s="8"/>
       <c r="L57" s="9">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="M57" s="9"/>
       <c t="s" r="N57" s="7">
@@ -2449,17 +2470,17 @@
       <c r="F58" s="7"/>
       <c r="G58" s="7"/>
       <c t="s" r="H58" s="8">
-        <v>85</v>
+        <v>14</v>
       </c>
       <c r="I58" s="8"/>
       <c r="J58" s="8"/>
       <c r="K58" s="8"/>
       <c r="L58" s="9">
-        <v>260</v>
+        <v>135</v>
       </c>
       <c r="M58" s="9"/>
       <c t="s" r="N58" s="7">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="59" ht="24.75" customHeight="1">
@@ -2467,7 +2488,7 @@
         <v>56</v>
       </c>
       <c t="s" r="B59" s="7">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C59" s="7"/>
       <c r="D59" s="7"/>
@@ -2475,17 +2496,17 @@
       <c r="F59" s="7"/>
       <c r="G59" s="7"/>
       <c t="s" r="H59" s="8">
-        <v>14</v>
+        <v>45</v>
       </c>
       <c r="I59" s="8"/>
       <c r="J59" s="8"/>
       <c r="K59" s="8"/>
       <c r="L59" s="9">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="M59" s="9"/>
       <c t="s" r="N59" s="7">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="60" ht="25.5" customHeight="1">
@@ -2493,7 +2514,7 @@
         <v>57</v>
       </c>
       <c t="s" r="B60" s="7">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C60" s="7"/>
       <c r="D60" s="7"/>
@@ -2501,17 +2522,17 @@
       <c r="F60" s="7"/>
       <c r="G60" s="7"/>
       <c t="s" r="H60" s="8">
-        <v>9</v>
+        <v>87</v>
       </c>
       <c r="I60" s="8"/>
       <c r="J60" s="8"/>
       <c r="K60" s="8"/>
       <c r="L60" s="9">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="M60" s="9"/>
       <c t="s" r="N60" s="7">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="61" ht="24.75" customHeight="1">
@@ -2527,17 +2548,17 @@
       <c r="F61" s="7"/>
       <c r="G61" s="7"/>
       <c t="s" r="H61" s="8">
-        <v>20</v>
+        <v>89</v>
       </c>
       <c r="I61" s="8"/>
       <c r="J61" s="8"/>
       <c r="K61" s="8"/>
       <c r="L61" s="9">
-        <v>21.559999999999999</v>
+        <v>260</v>
       </c>
       <c r="M61" s="9"/>
       <c t="s" r="N61" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -2545,7 +2566,7 @@
         <v>59</v>
       </c>
       <c t="s" r="B62" s="7">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C62" s="7"/>
       <c r="D62" s="7"/>
@@ -2553,17 +2574,17 @@
       <c r="F62" s="7"/>
       <c r="G62" s="7"/>
       <c t="s" r="H62" s="8">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="I62" s="8"/>
       <c r="J62" s="8"/>
       <c r="K62" s="8"/>
       <c r="L62" s="9">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="M62" s="9"/>
       <c t="s" r="N62" s="7">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="63" ht="25.5" customHeight="1">
@@ -2571,7 +2592,7 @@
         <v>60</v>
       </c>
       <c t="s" r="B63" s="7">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C63" s="7"/>
       <c r="D63" s="7"/>
@@ -2579,17 +2600,17 @@
       <c r="F63" s="7"/>
       <c r="G63" s="7"/>
       <c t="s" r="H63" s="8">
-        <v>64</v>
+        <v>26</v>
       </c>
       <c r="I63" s="8"/>
       <c r="J63" s="8"/>
       <c r="K63" s="8"/>
       <c r="L63" s="9">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="M63" s="9"/>
       <c t="s" r="N63" s="7">
-        <v>14</v>
+        <v>22</v>
       </c>
     </row>
     <row r="64" ht="24.75" customHeight="1">
@@ -2597,7 +2618,7 @@
         <v>61</v>
       </c>
       <c t="s" r="B64" s="7">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C64" s="7"/>
       <c r="D64" s="7"/>
@@ -2605,17 +2626,17 @@
       <c r="F64" s="7"/>
       <c r="G64" s="7"/>
       <c t="s" r="H64" s="8">
-        <v>92</v>
+        <v>9</v>
       </c>
       <c r="I64" s="8"/>
       <c r="J64" s="8"/>
       <c r="K64" s="8"/>
       <c r="L64" s="9">
-        <v>4</v>
+        <v>75</v>
       </c>
       <c r="M64" s="9"/>
       <c t="s" r="N64" s="7">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="65" ht="25.5" customHeight="1">
@@ -2631,13 +2652,13 @@
       <c r="F65" s="7"/>
       <c r="G65" s="7"/>
       <c t="s" r="H65" s="8">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="I65" s="8"/>
       <c r="J65" s="8"/>
       <c r="K65" s="8"/>
       <c r="L65" s="9">
-        <v>80</v>
+        <v>21.559999999999999</v>
       </c>
       <c r="M65" s="9"/>
       <c t="s" r="N65" s="7">
@@ -2657,17 +2678,17 @@
       <c r="F66" s="7"/>
       <c r="G66" s="7"/>
       <c t="s" r="H66" s="8">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I66" s="8"/>
       <c r="J66" s="8"/>
       <c r="K66" s="8"/>
       <c r="L66" s="9">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="M66" s="9"/>
       <c t="s" r="N66" s="7">
-        <v>32</v>
+        <v>9</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -2683,17 +2704,17 @@
       <c r="F67" s="7"/>
       <c r="G67" s="7"/>
       <c t="s" r="H67" s="8">
-        <v>96</v>
+        <v>68</v>
       </c>
       <c r="I67" s="8"/>
       <c r="J67" s="8"/>
       <c r="K67" s="8"/>
       <c r="L67" s="9">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="M67" s="9"/>
       <c t="s" r="N67" s="7">
-        <v>64</v>
+        <v>14</v>
       </c>
     </row>
     <row r="68" ht="25.5" customHeight="1">
@@ -2701,7 +2722,7 @@
         <v>65</v>
       </c>
       <c t="s" r="B68" s="7">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C68" s="7"/>
       <c r="D68" s="7"/>
@@ -2709,17 +2730,17 @@
       <c r="F68" s="7"/>
       <c r="G68" s="7"/>
       <c t="s" r="H68" s="8">
-        <v>32</v>
+        <v>97</v>
       </c>
       <c r="I68" s="8"/>
       <c r="J68" s="8"/>
       <c r="K68" s="8"/>
       <c r="L68" s="9">
-        <v>108</v>
+        <v>4</v>
       </c>
       <c r="M68" s="9"/>
       <c t="s" r="N68" s="7">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="69" ht="24.75" customHeight="1">
@@ -2735,17 +2756,17 @@
       <c r="F69" s="7"/>
       <c r="G69" s="7"/>
       <c t="s" r="H69" s="8">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="I69" s="8"/>
       <c r="J69" s="8"/>
       <c r="K69" s="8"/>
       <c r="L69" s="9">
-        <v>45</v>
+        <v>80</v>
       </c>
       <c r="M69" s="9"/>
       <c t="s" r="N69" s="7">
-        <v>32</v>
+        <v>9</v>
       </c>
     </row>
     <row r="70" ht="25.5" customHeight="1">
@@ -2761,17 +2782,17 @@
       <c r="F70" s="7"/>
       <c r="G70" s="7"/>
       <c t="s" r="H70" s="8">
-        <v>79</v>
+        <v>11</v>
       </c>
       <c r="I70" s="8"/>
       <c r="J70" s="8"/>
       <c r="K70" s="8"/>
       <c r="L70" s="9">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="M70" s="9"/>
       <c t="s" r="N70" s="7">
-        <v>14</v>
+        <v>22</v>
       </c>
     </row>
     <row r="71" ht="24.75" customHeight="1">
@@ -2787,17 +2808,17 @@
       <c r="F71" s="7"/>
       <c r="G71" s="7"/>
       <c t="s" r="H71" s="8">
-        <v>14</v>
+        <v>101</v>
       </c>
       <c r="I71" s="8"/>
       <c r="J71" s="8"/>
       <c r="K71" s="8"/>
       <c r="L71" s="9">
-        <v>100</v>
+        <v>46</v>
       </c>
       <c r="M71" s="9"/>
       <c t="s" r="N71" s="7">
-        <v>9</v>
+        <v>68</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -2805,7 +2826,7 @@
         <v>69</v>
       </c>
       <c t="s" r="B72" s="7">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C72" s="7"/>
       <c r="D72" s="7"/>
@@ -2813,13 +2834,13 @@
       <c r="F72" s="7"/>
       <c r="G72" s="7"/>
       <c t="s" r="H72" s="8">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="I72" s="8"/>
       <c r="J72" s="8"/>
       <c r="K72" s="8"/>
       <c r="L72" s="9">
-        <v>230</v>
+        <v>108</v>
       </c>
       <c r="M72" s="9"/>
       <c t="s" r="N72" s="7">
@@ -2831,7 +2852,7 @@
         <v>70</v>
       </c>
       <c t="s" r="B73" s="7">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C73" s="7"/>
       <c r="D73" s="7"/>
@@ -2839,17 +2860,17 @@
       <c r="F73" s="7"/>
       <c r="G73" s="7"/>
       <c t="s" r="H73" s="8">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="I73" s="8"/>
       <c r="J73" s="8"/>
       <c r="K73" s="8"/>
       <c r="L73" s="9">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="M73" s="9"/>
       <c t="s" r="N73" s="7">
-        <v>14</v>
+        <v>22</v>
       </c>
     </row>
     <row r="74" ht="24.75" customHeight="1">
@@ -2857,7 +2878,7 @@
         <v>71</v>
       </c>
       <c t="s" r="B74" s="7">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C74" s="7"/>
       <c r="D74" s="7"/>
@@ -2865,13 +2886,13 @@
       <c r="F74" s="7"/>
       <c r="G74" s="7"/>
       <c t="s" r="H74" s="8">
-        <v>22</v>
+        <v>83</v>
       </c>
       <c r="I74" s="8"/>
       <c r="J74" s="8"/>
       <c r="K74" s="8"/>
       <c r="L74" s="9">
-        <v>37.600000000000001</v>
+        <v>23</v>
       </c>
       <c r="M74" s="9"/>
       <c t="s" r="N74" s="7">
@@ -2883,7 +2904,7 @@
         <v>72</v>
       </c>
       <c t="s" r="B75" s="7">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C75" s="7"/>
       <c r="D75" s="7"/>
@@ -2897,11 +2918,11 @@
       <c r="J75" s="8"/>
       <c r="K75" s="8"/>
       <c r="L75" s="9">
-        <v>144</v>
+        <v>100</v>
       </c>
       <c r="M75" s="9"/>
       <c t="s" r="N75" s="7">
-        <v>73</v>
+        <v>9</v>
       </c>
     </row>
     <row r="76" ht="24.75" customHeight="1">
@@ -2909,7 +2930,7 @@
         <v>73</v>
       </c>
       <c t="s" r="B76" s="7">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C76" s="7"/>
       <c r="D76" s="7"/>
@@ -2917,17 +2938,17 @@
       <c r="F76" s="7"/>
       <c r="G76" s="7"/>
       <c t="s" r="H76" s="8">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="I76" s="8"/>
       <c r="J76" s="8"/>
       <c r="K76" s="8"/>
       <c r="L76" s="9">
-        <v>97</v>
+        <v>230</v>
       </c>
       <c r="M76" s="9"/>
       <c t="s" r="N76" s="7">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -2935,7 +2956,7 @@
         <v>74</v>
       </c>
       <c t="s" r="B77" s="7">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C77" s="7"/>
       <c r="D77" s="7"/>
@@ -2943,17 +2964,17 @@
       <c r="F77" s="7"/>
       <c r="G77" s="7"/>
       <c t="s" r="H77" s="8">
-        <v>107</v>
+        <v>38</v>
       </c>
       <c r="I77" s="8"/>
       <c r="J77" s="8"/>
       <c r="K77" s="8"/>
       <c r="L77" s="9">
-        <v>84</v>
+        <v>58</v>
       </c>
       <c r="M77" s="9"/>
       <c t="s" r="N77" s="7">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="78" ht="25.5" customHeight="1">
@@ -2969,17 +2990,17 @@
       <c r="F78" s="7"/>
       <c r="G78" s="7"/>
       <c t="s" r="H78" s="8">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="I78" s="8"/>
       <c r="J78" s="8"/>
       <c r="K78" s="8"/>
       <c r="L78" s="9">
-        <v>68.310000000000002</v>
+        <v>75.200000000000003</v>
       </c>
       <c r="M78" s="9"/>
       <c t="s" r="N78" s="7">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="79" ht="24.75" customHeight="1">
@@ -2995,17 +3016,17 @@
       <c r="F79" s="7"/>
       <c r="G79" s="7"/>
       <c t="s" r="H79" s="8">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="I79" s="8"/>
       <c r="J79" s="8"/>
       <c r="K79" s="8"/>
       <c r="L79" s="9">
-        <v>35</v>
+        <v>144</v>
       </c>
       <c r="M79" s="9"/>
       <c t="s" r="N79" s="7">
-        <v>9</v>
+        <v>77</v>
       </c>
     </row>
     <row r="80" ht="25.5" customHeight="1">
@@ -3021,17 +3042,17 @@
       <c r="F80" s="7"/>
       <c r="G80" s="7"/>
       <c t="s" r="H80" s="8">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="I80" s="8"/>
       <c r="J80" s="8"/>
       <c r="K80" s="8"/>
       <c r="L80" s="9">
-        <v>39</v>
+        <v>97</v>
       </c>
       <c r="M80" s="9"/>
       <c t="s" r="N80" s="7">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="81" ht="24.75" customHeight="1">
@@ -3053,11 +3074,11 @@
       <c r="J81" s="8"/>
       <c r="K81" s="8"/>
       <c r="L81" s="9">
-        <v>35</v>
+        <v>84</v>
       </c>
       <c r="M81" s="9"/>
       <c t="s" r="N81" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3073,17 +3094,17 @@
       <c r="F82" s="7"/>
       <c r="G82" s="7"/>
       <c t="s" r="H82" s="8">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="I82" s="8"/>
       <c r="J82" s="8"/>
       <c r="K82" s="8"/>
       <c r="L82" s="9">
-        <v>25</v>
+        <v>68.310000000000002</v>
       </c>
       <c r="M82" s="9"/>
       <c t="s" r="N82" s="7">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="83" ht="25.5" customHeight="1">
@@ -3099,13 +3120,13 @@
       <c r="F83" s="7"/>
       <c r="G83" s="7"/>
       <c t="s" r="H83" s="8">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I83" s="8"/>
       <c r="J83" s="8"/>
       <c r="K83" s="8"/>
       <c r="L83" s="9">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="M83" s="9"/>
       <c t="s" r="N83" s="7">
@@ -3125,13 +3146,13 @@
       <c r="F84" s="7"/>
       <c r="G84" s="7"/>
       <c t="s" r="H84" s="8">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="I84" s="8"/>
       <c r="J84" s="8"/>
       <c r="K84" s="8"/>
       <c r="L84" s="9">
-        <v>23</v>
+        <v>65</v>
       </c>
       <c r="M84" s="9"/>
       <c t="s" r="N84" s="7">
@@ -3151,17 +3172,17 @@
       <c r="F85" s="7"/>
       <c r="G85" s="7"/>
       <c t="s" r="H85" s="8">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="I85" s="8"/>
       <c r="J85" s="8"/>
       <c r="K85" s="8"/>
       <c r="L85" s="9">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="M85" s="9"/>
       <c t="s" r="N85" s="7">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="86" ht="24.75" customHeight="1">
@@ -3177,13 +3198,13 @@
       <c r="F86" s="7"/>
       <c r="G86" s="7"/>
       <c t="s" r="H86" s="8">
-        <v>14</v>
+        <v>118</v>
       </c>
       <c r="I86" s="8"/>
       <c r="J86" s="8"/>
       <c r="K86" s="8"/>
       <c r="L86" s="9">
-        <v>531</v>
+        <v>35</v>
       </c>
       <c r="M86" s="9"/>
       <c t="s" r="N86" s="7">
@@ -3195,7 +3216,7 @@
         <v>84</v>
       </c>
       <c t="s" r="B87" s="7">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C87" s="7"/>
       <c r="D87" s="7"/>
@@ -3203,17 +3224,17 @@
       <c r="F87" s="7"/>
       <c r="G87" s="7"/>
       <c t="s" r="H87" s="8">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I87" s="8"/>
       <c r="J87" s="8"/>
       <c r="K87" s="8"/>
       <c r="L87" s="9">
-        <v>-96</v>
+        <v>25</v>
       </c>
       <c r="M87" s="9"/>
       <c t="s" r="N87" s="7">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="88" ht="25.5" customHeight="1">
@@ -3221,7 +3242,7 @@
         <v>85</v>
       </c>
       <c t="s" r="B88" s="7">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C88" s="7"/>
       <c r="D88" s="7"/>
@@ -3229,17 +3250,17 @@
       <c r="F88" s="7"/>
       <c r="G88" s="7"/>
       <c t="s" r="H88" s="8">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I88" s="8"/>
       <c r="J88" s="8"/>
       <c r="K88" s="8"/>
       <c r="L88" s="9">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="M88" s="9"/>
       <c t="s" r="N88" s="7">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="89" ht="24.75" customHeight="1">
@@ -3247,7 +3268,7 @@
         <v>86</v>
       </c>
       <c t="s" r="B89" s="7">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C89" s="7"/>
       <c r="D89" s="7"/>
@@ -3255,13 +3276,13 @@
       <c r="F89" s="7"/>
       <c r="G89" s="7"/>
       <c t="s" r="H89" s="8">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="I89" s="8"/>
       <c r="J89" s="8"/>
       <c r="K89" s="8"/>
       <c r="L89" s="9">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="M89" s="9"/>
       <c t="s" r="N89" s="7">
@@ -3273,7 +3294,7 @@
         <v>87</v>
       </c>
       <c t="s" r="B90" s="7">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C90" s="7"/>
       <c r="D90" s="7"/>
@@ -3281,17 +3302,17 @@
       <c r="F90" s="7"/>
       <c r="G90" s="7"/>
       <c t="s" r="H90" s="8">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="I90" s="8"/>
       <c r="J90" s="8"/>
       <c r="K90" s="8"/>
       <c r="L90" s="9">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="M90" s="9"/>
       <c t="s" r="N90" s="7">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="91" ht="24.75" customHeight="1">
@@ -3299,7 +3320,7 @@
         <v>88</v>
       </c>
       <c t="s" r="B91" s="7">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C91" s="7"/>
       <c r="D91" s="7"/>
@@ -3307,13 +3328,13 @@
       <c r="F91" s="7"/>
       <c r="G91" s="7"/>
       <c t="s" r="H91" s="8">
-        <v>73</v>
+        <v>14</v>
       </c>
       <c r="I91" s="8"/>
       <c r="J91" s="8"/>
       <c r="K91" s="8"/>
       <c r="L91" s="9">
-        <v>38</v>
+        <v>531</v>
       </c>
       <c r="M91" s="9"/>
       <c t="s" r="N91" s="7">
@@ -3325,7 +3346,7 @@
         <v>89</v>
       </c>
       <c t="s" r="B92" s="7">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C92" s="7"/>
       <c r="D92" s="7"/>
@@ -3333,17 +3354,17 @@
       <c r="F92" s="7"/>
       <c r="G92" s="7"/>
       <c t="s" r="H92" s="8">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="I92" s="8"/>
       <c r="J92" s="8"/>
       <c r="K92" s="8"/>
       <c r="L92" s="9">
-        <v>120</v>
+        <v>-96</v>
       </c>
       <c r="M92" s="9"/>
       <c t="s" r="N92" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="93" ht="25.5" customHeight="1">
@@ -3351,7 +3372,7 @@
         <v>90</v>
       </c>
       <c t="s" r="B93" s="7">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C93" s="7"/>
       <c r="D93" s="7"/>
@@ -3359,17 +3380,17 @@
       <c r="F93" s="7"/>
       <c r="G93" s="7"/>
       <c t="s" r="H93" s="8">
-        <v>112</v>
+        <v>9</v>
       </c>
       <c r="I93" s="8"/>
       <c r="J93" s="8"/>
       <c r="K93" s="8"/>
       <c r="L93" s="9">
-        <v>25.739999999999998</v>
+        <v>11</v>
       </c>
       <c r="M93" s="9"/>
       <c t="s" r="N93" s="7">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="94" ht="24.75" customHeight="1">
@@ -3377,7 +3398,7 @@
         <v>91</v>
       </c>
       <c t="s" r="B94" s="7">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C94" s="7"/>
       <c r="D94" s="7"/>
@@ -3385,17 +3406,17 @@
       <c r="F94" s="7"/>
       <c r="G94" s="7"/>
       <c t="s" r="H94" s="8">
-        <v>126</v>
+        <v>11</v>
       </c>
       <c r="I94" s="8"/>
       <c r="J94" s="8"/>
       <c r="K94" s="8"/>
       <c r="L94" s="9">
-        <v>14.67</v>
+        <v>25</v>
       </c>
       <c r="M94" s="9"/>
       <c t="s" r="N94" s="7">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="95" ht="25.5" customHeight="1">
@@ -3411,17 +3432,17 @@
       <c r="F95" s="7"/>
       <c r="G95" s="7"/>
       <c t="s" r="H95" s="8">
-        <v>54</v>
+        <v>9</v>
       </c>
       <c r="I95" s="8"/>
       <c r="J95" s="8"/>
       <c r="K95" s="8"/>
       <c r="L95" s="9">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="M95" s="9"/>
       <c t="s" r="N95" s="7">
-        <v>47</v>
+        <v>9</v>
       </c>
     </row>
     <row r="96" ht="24.75" customHeight="1">
@@ -3437,17 +3458,17 @@
       <c r="F96" s="7"/>
       <c r="G96" s="7"/>
       <c t="s" r="H96" s="8">
-        <v>129</v>
+        <v>77</v>
       </c>
       <c r="I96" s="8"/>
       <c r="J96" s="8"/>
       <c r="K96" s="8"/>
       <c r="L96" s="9">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="M96" s="9"/>
       <c t="s" r="N96" s="7">
-        <v>42</v>
+        <v>9</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -3455,7 +3476,7 @@
         <v>94</v>
       </c>
       <c t="s" r="B97" s="7">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C97" s="7"/>
       <c r="D97" s="7"/>
@@ -3463,13 +3484,13 @@
       <c r="F97" s="7"/>
       <c r="G97" s="7"/>
       <c t="s" r="H97" s="8">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="I97" s="8"/>
       <c r="J97" s="8"/>
       <c r="K97" s="8"/>
       <c r="L97" s="9">
-        <v>86</v>
+        <v>120</v>
       </c>
       <c r="M97" s="9"/>
       <c t="s" r="N97" s="7">
@@ -3481,7 +3502,7 @@
         <v>95</v>
       </c>
       <c t="s" r="B98" s="7">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C98" s="7"/>
       <c r="D98" s="7"/>
@@ -3489,13 +3510,13 @@
       <c r="F98" s="7"/>
       <c r="G98" s="7"/>
       <c t="s" r="H98" s="8">
-        <v>132</v>
+        <v>118</v>
       </c>
       <c r="I98" s="8"/>
       <c r="J98" s="8"/>
       <c r="K98" s="8"/>
       <c r="L98" s="9">
-        <v>-56</v>
+        <v>25.739999999999998</v>
       </c>
       <c r="M98" s="9"/>
       <c t="s" r="N98" s="7">
@@ -3507,7 +3528,7 @@
         <v>96</v>
       </c>
       <c t="s" r="B99" s="7">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C99" s="7"/>
       <c r="D99" s="7"/>
@@ -3515,13 +3536,13 @@
       <c r="F99" s="7"/>
       <c r="G99" s="7"/>
       <c t="s" r="H99" s="8">
-        <v>22</v>
+        <v>132</v>
       </c>
       <c r="I99" s="8"/>
       <c r="J99" s="8"/>
       <c r="K99" s="8"/>
       <c r="L99" s="9">
-        <v>42</v>
+        <v>14.67</v>
       </c>
       <c r="M99" s="9"/>
       <c t="s" r="N99" s="7">
@@ -3533,7 +3554,7 @@
         <v>97</v>
       </c>
       <c t="s" r="B100" s="7">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C100" s="7"/>
       <c r="D100" s="7"/>
@@ -3541,17 +3562,17 @@
       <c r="F100" s="7"/>
       <c r="G100" s="7"/>
       <c t="s" r="H100" s="8">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="I100" s="8"/>
       <c r="J100" s="8"/>
       <c r="K100" s="8"/>
       <c r="L100" s="9">
-        <v>192</v>
+        <v>34</v>
       </c>
       <c r="M100" s="9"/>
       <c t="s" r="N100" s="7">
-        <v>11</v>
+        <v>50</v>
       </c>
     </row>
     <row r="101" ht="24.75" customHeight="1">
@@ -3559,7 +3580,7 @@
         <v>98</v>
       </c>
       <c t="s" r="B101" s="7">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C101" s="7"/>
       <c r="D101" s="7"/>
@@ -3567,17 +3588,17 @@
       <c r="F101" s="7"/>
       <c r="G101" s="7"/>
       <c t="s" r="H101" s="8">
-        <v>9</v>
+        <v>135</v>
       </c>
       <c r="I101" s="8"/>
       <c r="J101" s="8"/>
       <c r="K101" s="8"/>
       <c r="L101" s="9">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="M101" s="9"/>
       <c t="s" r="N101" s="7">
-        <v>32</v>
+        <v>89</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -3599,7 +3620,7 @@
       <c r="J102" s="8"/>
       <c r="K102" s="8"/>
       <c r="L102" s="9">
-        <v>375</v>
+        <v>86</v>
       </c>
       <c r="M102" s="9"/>
       <c t="s" r="N102" s="7">
@@ -3619,17 +3640,17 @@
       <c r="F103" s="7"/>
       <c r="G103" s="7"/>
       <c t="s" r="H103" s="8">
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="I103" s="8"/>
       <c r="J103" s="8"/>
       <c r="K103" s="8"/>
       <c r="L103" s="9">
-        <v>20</v>
+        <v>112</v>
       </c>
       <c r="M103" s="9"/>
       <c t="s" r="N103" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="104" ht="24.75" customHeight="1">
@@ -3645,17 +3666,17 @@
       <c r="F104" s="7"/>
       <c r="G104" s="7"/>
       <c t="s" r="H104" s="8">
-        <v>139</v>
+        <v>26</v>
       </c>
       <c r="I104" s="8"/>
       <c r="J104" s="8"/>
       <c r="K104" s="8"/>
       <c r="L104" s="9">
-        <v>8</v>
+        <v>42</v>
       </c>
       <c r="M104" s="9"/>
       <c t="s" r="N104" s="7">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="105" ht="25.5" customHeight="1">
@@ -3663,7 +3684,7 @@
         <v>102</v>
       </c>
       <c t="s" r="B105" s="7">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C105" s="7"/>
       <c r="D105" s="7"/>
@@ -3671,17 +3692,17 @@
       <c r="F105" s="7"/>
       <c r="G105" s="7"/>
       <c t="s" r="H105" s="8">
-        <v>141</v>
+        <v>58</v>
       </c>
       <c r="I105" s="8"/>
       <c r="J105" s="8"/>
       <c r="K105" s="8"/>
       <c r="L105" s="9">
-        <v>16</v>
+        <v>192</v>
       </c>
       <c r="M105" s="9"/>
       <c t="s" r="N105" s="7">
-        <v>20</v>
+        <v>11</v>
       </c>
     </row>
     <row r="106" ht="24.75" customHeight="1">
@@ -3689,7 +3710,7 @@
         <v>103</v>
       </c>
       <c t="s" r="B106" s="7">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C106" s="7"/>
       <c r="D106" s="7"/>
@@ -3703,11 +3724,11 @@
       <c r="J106" s="8"/>
       <c r="K106" s="8"/>
       <c r="L106" s="9">
-        <v>-4</v>
+        <v>50</v>
       </c>
       <c r="M106" s="9"/>
       <c t="s" r="N106" s="7">
-        <v>11</v>
+        <v>22</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -3715,7 +3736,7 @@
         <v>104</v>
       </c>
       <c t="s" r="B107" s="7">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C107" s="7"/>
       <c r="D107" s="7"/>
@@ -3723,13 +3744,13 @@
       <c r="F107" s="7"/>
       <c r="G107" s="7"/>
       <c t="s" r="H107" s="8">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="I107" s="8"/>
       <c r="J107" s="8"/>
       <c r="K107" s="8"/>
       <c r="L107" s="9">
-        <v>50</v>
+        <v>375</v>
       </c>
       <c r="M107" s="9"/>
       <c t="s" r="N107" s="7">
@@ -3741,7 +3762,7 @@
         <v>105</v>
       </c>
       <c t="s" r="B108" s="7">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C108" s="7"/>
       <c r="D108" s="7"/>
@@ -3755,7 +3776,7 @@
       <c r="J108" s="8"/>
       <c r="K108" s="8"/>
       <c r="L108" s="9">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="M108" s="9"/>
       <c t="s" r="N108" s="7">
@@ -3767,7 +3788,7 @@
         <v>106</v>
       </c>
       <c t="s" r="B109" s="7">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C109" s="7"/>
       <c r="D109" s="7"/>
@@ -3775,17 +3796,17 @@
       <c r="F109" s="7"/>
       <c r="G109" s="7"/>
       <c t="s" r="H109" s="8">
-        <v>112</v>
+        <v>144</v>
       </c>
       <c r="I109" s="8"/>
       <c r="J109" s="8"/>
       <c r="K109" s="8"/>
       <c r="L109" s="9">
-        <v>75</v>
+        <v>24</v>
       </c>
       <c r="M109" s="9"/>
       <c t="s" r="N109" s="7">
-        <v>9</v>
+        <v>89</v>
       </c>
     </row>
     <row r="110" ht="25.5" customHeight="1">
@@ -3793,7 +3814,7 @@
         <v>107</v>
       </c>
       <c t="s" r="B110" s="7">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C110" s="7"/>
       <c r="D110" s="7"/>
@@ -3801,17 +3822,17 @@
       <c r="F110" s="7"/>
       <c r="G110" s="7"/>
       <c t="s" r="H110" s="8">
-        <v>85</v>
+        <v>146</v>
       </c>
       <c r="I110" s="8"/>
       <c r="J110" s="8"/>
       <c r="K110" s="8"/>
       <c r="L110" s="9">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="M110" s="9"/>
       <c t="s" r="N110" s="7">
-        <v>9</v>
+        <v>34</v>
       </c>
     </row>
     <row r="111" ht="24.75" customHeight="1">
@@ -3827,51 +3848,207 @@
       <c r="F111" s="7"/>
       <c r="G111" s="7"/>
       <c t="s" r="H111" s="8">
-        <v>9</v>
+        <v>148</v>
       </c>
       <c r="I111" s="8"/>
       <c r="J111" s="8"/>
       <c r="K111" s="8"/>
       <c r="L111" s="9">
-        <v>20</v>
+        <v>-2</v>
       </c>
       <c r="M111" s="9"/>
       <c t="s" r="N111" s="7">
         <v>9</v>
       </c>
     </row>
-    <row r="112" ht="26.25" customHeight="1">
-      <c r="K112" s="10">
-        <v>6062.1599999999999</v>
-      </c>
-      <c r="L112" s="10"/>
-      <c r="M112" s="10"/>
-      <c r="N112" s="10"/>
-    </row>
-    <row r="113" ht="16.5" customHeight="1">
-      <c t="s" r="A113" s="11">
+    <row r="112" ht="25.5" customHeight="1">
+      <c r="A112" s="6">
+        <v>109</v>
+      </c>
+      <c t="s" r="B112" s="7">
+        <v>149</v>
+      </c>
+      <c r="C112" s="7"/>
+      <c r="D112" s="7"/>
+      <c r="E112" s="7"/>
+      <c r="F112" s="7"/>
+      <c r="G112" s="7"/>
+      <c t="s" r="H112" s="8">
+        <v>14</v>
+      </c>
+      <c r="I112" s="8"/>
+      <c r="J112" s="8"/>
+      <c r="K112" s="8"/>
+      <c r="L112" s="9">
+        <v>50</v>
+      </c>
+      <c r="M112" s="9"/>
+      <c t="s" r="N112" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="113" ht="25.5" customHeight="1">
+      <c r="A113" s="6">
+        <v>110</v>
+      </c>
+      <c t="s" r="B113" s="7">
+        <v>150</v>
+      </c>
+      <c r="C113" s="7"/>
+      <c r="D113" s="7"/>
+      <c r="E113" s="7"/>
+      <c r="F113" s="7"/>
+      <c r="G113" s="7"/>
+      <c t="s" r="H113" s="8">
+        <v>14</v>
+      </c>
+      <c r="I113" s="8"/>
+      <c r="J113" s="8"/>
+      <c r="K113" s="8"/>
+      <c r="L113" s="9">
+        <v>40</v>
+      </c>
+      <c r="M113" s="9"/>
+      <c t="s" r="N113" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="114" ht="24.75" customHeight="1">
+      <c r="A114" s="6">
+        <v>111</v>
+      </c>
+      <c t="s" r="B114" s="7">
+        <v>151</v>
+      </c>
+      <c r="C114" s="7"/>
+      <c r="D114" s="7"/>
+      <c r="E114" s="7"/>
+      <c r="F114" s="7"/>
+      <c r="G114" s="7"/>
+      <c t="s" r="H114" s="8">
+        <v>118</v>
+      </c>
+      <c r="I114" s="8"/>
+      <c r="J114" s="8"/>
+      <c r="K114" s="8"/>
+      <c r="L114" s="9">
+        <v>75</v>
+      </c>
+      <c r="M114" s="9"/>
+      <c t="s" r="N114" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="115" ht="25.5" customHeight="1">
+      <c r="A115" s="6">
+        <v>112</v>
+      </c>
+      <c t="s" r="B115" s="7">
+        <v>152</v>
+      </c>
+      <c r="C115" s="7"/>
+      <c r="D115" s="7"/>
+      <c r="E115" s="7"/>
+      <c r="F115" s="7"/>
+      <c r="G115" s="7"/>
+      <c t="s" r="H115" s="8">
         <v>148</v>
       </c>
-      <c r="B113" s="11"/>
-      <c r="C113" s="11"/>
-      <c r="D113" s="11"/>
-      <c r="E113" s="11"/>
-      <c t="s" r="F113" s="12">
-        <v>149</v>
-      </c>
-      <c r="G113" s="12"/>
-      <c r="H113" s="13"/>
-      <c t="s" r="I113" s="14">
-        <v>150</v>
-      </c>
-      <c r="J113" s="14"/>
-      <c r="K113" s="14"/>
-      <c r="L113" s="14"/>
-      <c r="M113" s="14"/>
-      <c r="N113" s="14"/>
+      <c r="I115" s="8"/>
+      <c r="J115" s="8"/>
+      <c r="K115" s="8"/>
+      <c r="L115" s="9">
+        <v>20</v>
+      </c>
+      <c r="M115" s="9"/>
+      <c t="s" r="N115" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="116" ht="24.75" customHeight="1">
+      <c r="A116" s="6">
+        <v>113</v>
+      </c>
+      <c t="s" r="B116" s="7">
+        <v>153</v>
+      </c>
+      <c r="C116" s="7"/>
+      <c r="D116" s="7"/>
+      <c r="E116" s="7"/>
+      <c r="F116" s="7"/>
+      <c r="G116" s="7"/>
+      <c t="s" r="H116" s="8">
+        <v>89</v>
+      </c>
+      <c r="I116" s="8"/>
+      <c r="J116" s="8"/>
+      <c r="K116" s="8"/>
+      <c r="L116" s="9">
+        <v>80</v>
+      </c>
+      <c r="M116" s="9"/>
+      <c t="s" r="N116" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="117" ht="25.5" customHeight="1">
+      <c r="A117" s="6">
+        <v>114</v>
+      </c>
+      <c t="s" r="B117" s="7">
+        <v>154</v>
+      </c>
+      <c r="C117" s="7"/>
+      <c r="D117" s="7"/>
+      <c r="E117" s="7"/>
+      <c r="F117" s="7"/>
+      <c r="G117" s="7"/>
+      <c t="s" r="H117" s="8">
+        <v>9</v>
+      </c>
+      <c r="I117" s="8"/>
+      <c r="J117" s="8"/>
+      <c r="K117" s="8"/>
+      <c r="L117" s="9">
+        <v>20</v>
+      </c>
+      <c r="M117" s="9"/>
+      <c t="s" r="N117" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="118" ht="25.5" customHeight="1">
+      <c r="K118" s="10">
+        <v>6485.0600000000004</v>
+      </c>
+      <c r="L118" s="10"/>
+      <c r="M118" s="10"/>
+      <c r="N118" s="10"/>
+    </row>
+    <row r="119" ht="17.25" customHeight="1">
+      <c t="s" r="A119" s="11">
+        <v>155</v>
+      </c>
+      <c r="B119" s="11"/>
+      <c r="C119" s="11"/>
+      <c r="D119" s="11"/>
+      <c r="E119" s="11"/>
+      <c t="s" r="F119" s="12">
+        <v>156</v>
+      </c>
+      <c r="G119" s="12"/>
+      <c r="H119" s="13"/>
+      <c t="s" r="I119" s="14">
+        <v>157</v>
+      </c>
+      <c r="J119" s="14"/>
+      <c r="K119" s="14"/>
+      <c r="L119" s="14"/>
+      <c r="M119" s="14"/>
+      <c r="N119" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="335">
+  <mergeCells count="353">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -4203,10 +4380,28 @@
     <mergeCell ref="B111:G111"/>
     <mergeCell ref="H111:K111"/>
     <mergeCell ref="L111:M111"/>
-    <mergeCell ref="K112:N112"/>
-    <mergeCell ref="A113:E113"/>
-    <mergeCell ref="F113:G113"/>
-    <mergeCell ref="I113:N113"/>
+    <mergeCell ref="B112:G112"/>
+    <mergeCell ref="H112:K112"/>
+    <mergeCell ref="L112:M112"/>
+    <mergeCell ref="B113:G113"/>
+    <mergeCell ref="H113:K113"/>
+    <mergeCell ref="L113:M113"/>
+    <mergeCell ref="B114:G114"/>
+    <mergeCell ref="H114:K114"/>
+    <mergeCell ref="L114:M114"/>
+    <mergeCell ref="B115:G115"/>
+    <mergeCell ref="H115:K115"/>
+    <mergeCell ref="L115:M115"/>
+    <mergeCell ref="B116:G116"/>
+    <mergeCell ref="H116:K116"/>
+    <mergeCell ref="L116:M116"/>
+    <mergeCell ref="B117:G117"/>
+    <mergeCell ref="H117:K117"/>
+    <mergeCell ref="L117:M117"/>
+    <mergeCell ref="K118:N118"/>
+    <mergeCell ref="A119:E119"/>
+    <mergeCell ref="F119:G119"/>
+    <mergeCell ref="I119:N119"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
